--- a/Code/TopicNumber/Topic_Modeling_Unigram/Evaluation/Coherence_vs_Difference_Jaccard_20_avg_300_topics.xlsx
+++ b/Code/TopicNumber/Topic_Modeling_Unigram/Evaluation/Coherence_vs_Difference_Jaccard_20_avg_300_topics.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\Code\TopicNumber\Topic_Modeling_Unigram\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\BachelorTopicModeling\Code\TopicNumber\Topic_Modeling_Unigram\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D3E058-9749-48A7-A24B-EE381B1BE8B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A64D78A-A285-4E4B-8857-B454A61FEBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1155" windowWidth="21900" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coherence_vs_Difference_Jaccard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Kohärenz: u_mass</t>
+  </si>
+  <si>
+    <t>Distanz: Jaccard Mittelwert</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,6 +558,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2C944C"/>
+      <color rgb="FF097532"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1764,899 +1781,908 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Coherence_vs_Difference_Jaccard!$E$3:$KO$3</c:f>
+              <c:f>Coherence_vs_Difference_Jaccard!$B$3:$KO$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98910675381263602</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.89166983768376895</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0.94262974459052895</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.91942189248283401</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.87294908767708401</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.874588166242943</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.88011482509468397</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>0.88532125606428902</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.88660912387204505</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0.899449208026466</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>0.90193484846877703</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.89961668307239495</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0.90961598628560103</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>0.90554688908955505</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>0.90529889323463197</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>0.90036315526514898</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.90360643097440696</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0.909312862048135</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>0.90244091120775305</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>0.90516613254328004</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.90669552376686902</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>0.90944841848694902</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>0.91101091027436698</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>0.91017426805141199</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>0.90981568469830199</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>0.90791903926337103</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>0.910776535257942</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>0.912707522723473</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>0.91756756717002497</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>0.92447748901431204</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>0.92016965155196595</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>0.92255038608123596</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>0.92631819192648102</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>0.92355169199653497</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>0.92501812017388096</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>0.92256749701428598</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>0.92434178216457497</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>0.92612075626138701</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>0.92716771879260296</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>0.92331950797943796</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>0.92522484407644401</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>0.92362223751429395</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>0.92793001890201499</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>0.92536009774976902</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>0.92786812932580598</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>0.92854144919707404</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>0.92666468948752601</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>0.93067145252519301</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>0.92689015142451703</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>0.93380447540211897</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="52">
                   <c:v>0.93155522453746997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="53">
                   <c:v>0.929863214551509</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="54">
                   <c:v>0.929907065792136</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="55">
                   <c:v>0.92927803879608895</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="56">
                   <c:v>0.92946208237019701</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
                   <c:v>0.92624917918535599</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="58">
                   <c:v>0.92701343365839195</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="59">
                   <c:v>0.92865144684352197</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
                   <c:v>0.92579473606761498</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="61">
                   <c:v>0.93067689655838903</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="62">
                   <c:v>0.93053738981193002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="63">
                   <c:v>0.93022766042305305</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
                   <c:v>0.92941789362699501</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="65">
                   <c:v>0.93075946593758296</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="66">
                   <c:v>0.93099226185607098</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
                   <c:v>0.93418992720834804</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>0.93528711198266601</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="69">
                   <c:v>0.93168289764982404</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="70">
                   <c:v>0.93185845100768705</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
                   <c:v>0.93420381732408297</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>0.93236715105117696</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
                   <c:v>0.93307212617681301</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="74">
                   <c:v>0.93113769260306201</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
                   <c:v>0.93460595588858397</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="76">
                   <c:v>0.93550980942894102</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="77">
                   <c:v>0.93298852010779298</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="78">
                   <c:v>0.93435130301043201</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="79">
                   <c:v>0.93154627381004595</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="80">
                   <c:v>0.93189072668636697</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="81">
                   <c:v>0.93337008925263598</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="82">
                   <c:v>0.93268864518230798</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="83">
                   <c:v>0.93438941196598302</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="84">
                   <c:v>0.93406889116396397</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="85">
                   <c:v>0.93130307874214602</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="86">
                   <c:v>0.92979524397725599</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="87">
                   <c:v>0.93386474590318902</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="88">
                   <c:v>0.93022354356311598</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="89">
                   <c:v>0.93432243207930099</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="90">
                   <c:v>0.932763349328252</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="91">
                   <c:v>0.93425742155998204</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="92">
                   <c:v>0.93285846702369102</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="93">
                   <c:v>0.93393662794934795</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="94">
                   <c:v>0.933484048481241</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="95">
                   <c:v>0.93679158834475396</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="96">
                   <c:v>0.93502490193855203</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="97">
                   <c:v>0.936158682398053</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="98">
                   <c:v>0.93728901483452798</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="99">
                   <c:v>0.93764589434871204</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="100">
                   <c:v>0.93672592970261204</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="101">
                   <c:v>0.93819602441786698</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="102">
                   <c:v>0.937208829151846</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="103">
                   <c:v>0.93718806369756302</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="104">
                   <c:v>0.93647939468520303</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="105">
                   <c:v>0.93747411576424</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="106">
                   <c:v>0.93788238849684602</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="107">
                   <c:v>0.93810888241579105</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="108">
                   <c:v>0.94047384333471695</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="109">
                   <c:v>0.93691929639677796</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="110">
                   <c:v>0.93581206673869799</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="111">
                   <c:v>0.93878768846332905</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="112">
                   <c:v>0.938537387317811</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="113">
                   <c:v>0.93508805800181505</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="114">
                   <c:v>0.93770509571569205</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="115">
                   <c:v>0.938553682813417</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="116">
                   <c:v>0.93726675582625096</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="117">
                   <c:v>0.94026316867071102</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="118">
                   <c:v>0.94001105805277696</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="119">
                   <c:v>0.93978757428198101</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
                   <c:v>0.94049651057828798</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="121">
                   <c:v>0.93743382757569305</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="122">
                   <c:v>0.93964985758189101</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="123">
                   <c:v>0.93831660554533403</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="124">
                   <c:v>0.93926531029044302</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="125">
                   <c:v>0.93926333413353102</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="126">
                   <c:v>0.93743253728482001</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="127">
                   <c:v>0.94016431225262798</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="128">
                   <c:v>0.93920677305814804</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="129">
                   <c:v>0.93730555089993095</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="130">
                   <c:v>0.93862535847883399</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="131">
                   <c:v>0.93841044627043202</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="132">
                   <c:v>0.93996436987292398</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="133">
                   <c:v>0.93681155978562902</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="134">
                   <c:v>0.93947471469502297</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="135">
                   <c:v>0.94023598888448001</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="136">
                   <c:v>0.93894057297940303</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="137">
                   <c:v>0.93779073288027504</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="138">
                   <c:v>0.93967872351103598</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="139">
                   <c:v>0.93858694833063205</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="140">
                   <c:v>0.93785157562502197</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="141">
                   <c:v>0.93793214387859802</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="142">
                   <c:v>0.93845260128922903</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="143">
                   <c:v>0.93879257418475504</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="144">
                   <c:v>0.94013546553439498</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="145">
                   <c:v>0.93867425934107895</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="146">
                   <c:v>0.93851259301229095</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="147">
                   <c:v>0.93853192788804396</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="148">
                   <c:v>0.93974548635340904</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="149">
                   <c:v>0.93942395591664096</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="150">
                   <c:v>0.93692239310339598</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="151">
                   <c:v>0.93891857932651801</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="152">
                   <c:v>0.93820738724855102</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="153">
                   <c:v>0.93878704161760196</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="154">
                   <c:v>0.93993856425947797</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="155">
                   <c:v>0.93933979922431898</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="156">
                   <c:v>0.93959096530196795</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="157">
                   <c:v>0.94011781224193203</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="158">
                   <c:v>0.94043355096013903</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="159">
                   <c:v>0.93913374843506303</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="160">
                   <c:v>0.93843835612369997</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="161">
                   <c:v>0.94069199803638603</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="162">
                   <c:v>0.93767973033310204</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="163">
                   <c:v>0.93907398831283695</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="164">
                   <c:v>0.94057724594558001</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="165">
                   <c:v>0.93696209156834498</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="166">
                   <c:v>0.93829822552370301</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="167">
                   <c:v>0.93988078759872296</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="168">
                   <c:v>0.93941374508143305</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="169">
                   <c:v>0.93807564161802603</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="170">
                   <c:v>0.93997792334373897</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="171">
                   <c:v>0.93678368276442703</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="172">
                   <c:v>0.93959253091033601</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="173">
                   <c:v>0.93856218162878002</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="174">
                   <c:v>0.93954545995008698</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="175">
                   <c:v>0.93860798501177001</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="176">
                   <c:v>0.93692613769431798</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="177">
                   <c:v>0.93781116001331</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="178">
                   <c:v>0.93985828434172802</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="179">
                   <c:v>0.93838909089804101</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="180">
                   <c:v>0.93931676940019504</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="181">
                   <c:v>0.93855329461966996</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="182">
                   <c:v>0.93799234032402501</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="183">
                   <c:v>0.937451332610717</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="184">
                   <c:v>0.93958209174707696</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="185">
                   <c:v>0.93745462574712801</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="186">
                   <c:v>0.93681238353392804</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="187">
                   <c:v>0.94016818657732004</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="188">
                   <c:v>0.93549515132219796</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="189">
                   <c:v>0.93640540820580598</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="190">
                   <c:v>0.93594457602180603</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="191">
                   <c:v>0.93544104769668501</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="192">
                   <c:v>0.93850949424470698</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="193">
                   <c:v>0.939440760775199</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="194">
                   <c:v>0.93759216510962395</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="195">
                   <c:v>0.93947805923125405</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="196">
                   <c:v>0.93779506535239898</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="197">
                   <c:v>0.93652898762908099</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="198">
                   <c:v>0.935526102249429</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="199">
                   <c:v>0.93450847468144205</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="200">
                   <c:v>0.93708487596961898</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="201">
                   <c:v>0.93539459980786399</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="202">
                   <c:v>0.93912151374886199</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="203">
                   <c:v>0.93218336682185499</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="204">
                   <c:v>0.93793921492584698</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="205">
                   <c:v>0.93878094418512004</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="206">
                   <c:v>0.93057705383806699</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="207">
                   <c:v>0.93669200371015604</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="208">
                   <c:v>0.93708840018314099</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="209">
                   <c:v>0.93671463927388399</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="210">
                   <c:v>0.93732988842590503</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="211">
                   <c:v>0.93213477789732802</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="212">
                   <c:v>0.93460232286170397</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="213">
                   <c:v>0.93498385323423405</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="214">
                   <c:v>0.93506411529016398</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="215">
                   <c:v>0.93443241111231701</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="216">
                   <c:v>0.93108212987592798</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="217">
                   <c:v>0.93859071684283801</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="218">
                   <c:v>0.93446365226959405</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="219">
                   <c:v>0.93294407110224098</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="220">
                   <c:v>0.93548076105031996</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="221">
                   <c:v>0.93660167406806405</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="222">
                   <c:v>0.93868747914804795</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="223">
                   <c:v>0.93584490154386202</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="224">
                   <c:v>0.92999724056344002</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="225">
                   <c:v>0.93521741809720405</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="226">
                   <c:v>0.93595116126738598</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="227">
                   <c:v>0.93255393225987404</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="228">
                   <c:v>0.93359698617126397</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="229">
                   <c:v>0.93457681382557101</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="230">
                   <c:v>0.93524882961097799</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="231">
                   <c:v>0.93433611775219105</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="232">
                   <c:v>0.93532061846065495</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="233">
                   <c:v>0.93516846871332104</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="234">
                   <c:v>0.93600939258586902</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="235">
                   <c:v>0.93705065725193903</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="236">
                   <c:v>0.92964314007109605</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="237">
                   <c:v>0.93255904727441896</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="238">
                   <c:v>0.93651764906264301</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="239">
                   <c:v>0.93654333009518798</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="240">
                   <c:v>0.93428938321633903</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="241">
                   <c:v>0.93616512173787303</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="242">
                   <c:v>0.93360734725832395</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="243">
                   <c:v>0.93044361707248002</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="244">
                   <c:v>0.93648162315349504</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="245">
                   <c:v>0.93163083269928704</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="246">
                   <c:v>0.93468589552502601</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="247">
                   <c:v>0.92888385871527901</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="248">
                   <c:v>0.93546240192209695</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="249">
                   <c:v>0.93498860565637198</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="250">
                   <c:v>0.92937707340115205</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="251">
                   <c:v>0.930102444190258</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="252">
                   <c:v>0.93046711512700597</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="253">
                   <c:v>0.932519953704538</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="254">
                   <c:v>0.933786686837905</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="255">
                   <c:v>0.93574160473083301</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="256">
                   <c:v>0.92832816271819696</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="257">
                   <c:v>0.93153730977708904</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="258">
                   <c:v>0.93686363320406496</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="259">
                   <c:v>0.93355529537695303</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="260">
                   <c:v>0.92726056203613305</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="261">
                   <c:v>0.93415006402062195</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="262">
                   <c:v>0.92621520294033699</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="263">
                   <c:v>0.92910234235365097</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="264">
                   <c:v>0.92642363228579006</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="265">
                   <c:v>0.92514840252132302</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="266">
                   <c:v>0.93230653245101103</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="267">
                   <c:v>0.92691791634057896</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="268">
                   <c:v>0.93120767725848597</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="269">
                   <c:v>0.92116276447004397</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="270">
                   <c:v>0.92707662515582701</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="271">
                   <c:v>0.93576893841990205</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="272">
                   <c:v>0.928997802445794</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="273">
                   <c:v>0.93006362493905403</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="274">
                   <c:v>0.92600709289642202</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="275">
                   <c:v>0.93326267664816398</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="276">
                   <c:v>0.93315162457406198</c:v>
                 </c:pt>
-                <c:pt idx="274">
+                <c:pt idx="277">
                   <c:v>0.92809742706058496</c:v>
                 </c:pt>
-                <c:pt idx="275">
+                <c:pt idx="278">
                   <c:v>0.92580277040672998</c:v>
                 </c:pt>
-                <c:pt idx="276">
+                <c:pt idx="279">
                   <c:v>0.92759788168850599</c:v>
                 </c:pt>
-                <c:pt idx="277">
+                <c:pt idx="280">
                   <c:v>0.93098651561594703</c:v>
                 </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="281">
                   <c:v>0.92949064533569303</c:v>
                 </c:pt>
-                <c:pt idx="279">
+                <c:pt idx="282">
                   <c:v>0.92593536768040596</c:v>
                 </c:pt>
-                <c:pt idx="280">
+                <c:pt idx="283">
                   <c:v>0.92597672372027995</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="284">
                   <c:v>0.93065986787874999</c:v>
                 </c:pt>
-                <c:pt idx="282">
+                <c:pt idx="285">
                   <c:v>0.926538823157257</c:v>
                 </c:pt>
-                <c:pt idx="283">
+                <c:pt idx="286">
                   <c:v>0.935851906416859</c:v>
                 </c:pt>
-                <c:pt idx="284">
+                <c:pt idx="287">
                   <c:v>0.93099407844777204</c:v>
                 </c:pt>
-                <c:pt idx="285">
+                <c:pt idx="288">
                   <c:v>0.92684628553543003</c:v>
                 </c:pt>
-                <c:pt idx="286">
+                <c:pt idx="289">
                   <c:v>0.92782217590527805</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="290">
                   <c:v>0.92599625167654798</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="291">
                   <c:v>0.93085374335472404</c:v>
                 </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="292">
                   <c:v>0.92637583859919903</c:v>
                 </c:pt>
-                <c:pt idx="290">
+                <c:pt idx="293">
                   <c:v>0.93036948283739096</c:v>
                 </c:pt>
-                <c:pt idx="291">
+                <c:pt idx="294">
                   <c:v>0.92551031990650101</c:v>
                 </c:pt>
-                <c:pt idx="292">
+                <c:pt idx="295">
                   <c:v>0.92247344720177804</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="296">
                   <c:v>0.92375109731257199</c:v>
                 </c:pt>
-                <c:pt idx="294">
+                <c:pt idx="297">
                   <c:v>0.92142538063134105</c:v>
                 </c:pt>
-                <c:pt idx="295">
+                <c:pt idx="298">
                   <c:v>0.92777085198370501</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="299">
                   <c:v>0.93041182568083802</c:v>
                 </c:pt>
               </c:numCache>
@@ -2726,7 +2752,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="13028191"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.85000000000000009"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2736,8 +2762,8 @@
         <c:axId val="13028191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.95000000000000007"/>
-          <c:min val="0.9"/>
+          <c:max val="0.97"/>
+          <c:min val="0.85000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3980,6 +4006,4600 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$B$2:$KO$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.28584917297358498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53575779829499204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60706300649322598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58272958525986696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92014286357987796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91972040163785096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70170340214047799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76861812745784996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941339808249683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09862212939806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1410660819185501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2461969826536301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3251219970061801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35053492456424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4494092296561101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4707639374469801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3721708173835201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.28628460911049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.38194338736134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4263045666988501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4000542402210301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4571098463565499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.58980478093613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54103003978256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6173589678282001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52957234975523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.61398254834739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.59536723940109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.63191566918959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7381283403885499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7086582202603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8977731674734699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.71036250092376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.82402975579787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9005960566862601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8213894596357001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8011149512161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8647575024432601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.80380963118669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0504059805414601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0090365419828098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.79147400086289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.98054274783077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9333960227992599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0521775703959402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8886365327955901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.00777444196508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0421619934833499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.07015009851784</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1646999048693898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.18575467576209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.24604686066295</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2412243567546999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2380340370714902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2233584621422899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1434662609239901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2382199397155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1577439238022298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1224170906714601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1836402306057998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.15529771171206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1914916986993398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2392660794839299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2911725353958001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2868610491629702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3575410631807898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.22966616186079</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2670569212990599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.27499953704636</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.19632190921019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2081549242612599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2941696674015901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2096353128332602</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3040407093828001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2103253743901901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.28960426631859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3013837386085001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4516629402676799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.44241238933787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.33062736436269</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3663174405605099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6562023369004102</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3267523373547401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.47973593182622</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6832529894025399</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4917817189382201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2664114636394599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6401901680344801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3099042819675102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5755393809713598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3873847767087799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6291379606082699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3894011824130899</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6491628966888401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4389525653939099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.58109978938396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5619223424412398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5142737398605699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8952392327474299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8649844990891902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8482385857594301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8967094097519999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8010109735392001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6355869342082201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.94063711891468</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8855504814258</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.7474498694569101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.82904041670727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0297373567382899</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.86487327903524</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8895736759059498</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.07504664431137</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9043767000273801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.7268450195761398</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.87200051048938</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0755631347644798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9725110632512299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0295863218465899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0264031882809399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.0578693061250299</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0001057926599302</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9642907808639398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.21485229966166</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9411039620439001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.15762405415731</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.96056785198844</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.94758178523412</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.3885581557893598</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.20673651188498</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2676409530961399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.0847112214060801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.1996488954587798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3066823204669902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4105222901792098</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.3599628993433202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.27201635815987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.21064904186863</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.82325649867157</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.4663186008625599</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.4041102209376199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.35036441647709</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4892477799863002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3544476085830599</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1246009711704801</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.46067227941557</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.29535998175129</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5777860327437701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.4441057120622598</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6509875989560001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.4878028165801802</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5563136424187198</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6561314970390102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.5798515669107398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.76083780242976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.5384099114458998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5929537145844899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.48652207730375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.4731870886186802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6331233009161301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.71559742718421</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.5162802606820498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.59250881399712</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7252089417461098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5370394934283</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.5087219548916302</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.5126962938538999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6447488931338099</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.63621428779238</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.8424020625476398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.8979915256915199</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.08031913975225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.00549855064141</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8030578047983599</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7744369218251901</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8227770893978601</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8192308858641399</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.9116634287310701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.7944058212205398</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.9425417156107101</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0309909447531602</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.8650596266206998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8958057358435698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.9785130375903499</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2935077571468803</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.9462464696271198</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.2170703181810199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.29769506506008</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.93753999161313</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.4457085831537597</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.9757292255464001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.1990300867142301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.2408303700436498</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.90253459373276</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.9333168738906399</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9249488795734</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.8617622652120298</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.0988925119773896</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.4027627636950299</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.4809908375973002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.3392869829679404</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.29704243507675</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.3924501922013004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.1706063502825597</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.5293463312020297</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.0997427026430602</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.3512933886708298</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.6762702943055796</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.23598737801382</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.1900602105804801</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2607566648985298</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1630770267339798</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.5943730890710901</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.54254758659203</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2599688643657796</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.2370848237997603</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3968130543465396</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.6669034944982197</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1386505906711504</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.51142988825353</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4378809770273699</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4932924126507698</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.3103085416991496</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.0021602956358802</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.3692536989605397</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.7937926013473504</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4919529459224004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4533491273743904</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.60773637746804</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.3984258244198502</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.5168406643879102</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.5299123255292004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.5247795145020602</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.5851988199745204</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.4324463477677698</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.3980169130347599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.4603634697775902</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.97618581414297</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7572285531385399</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.5566739140891697</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.4106500950049004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.6351010860617103</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.6701787752049198</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.7515813681628103</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9126206225923799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.7263765918194602</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.7946320773259403</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.6749822319767</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.0059203680584803</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.7142203154765898</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5524007700522002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.92483813637336</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.9305597845965696</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.7098006410456499</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.7833192187304903</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.6532176466331201</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.7625665955733396</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.0186624831830997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.8282517507603098</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.57235191259642</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.59178942167358</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.0226880485835297</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.5198279831856496</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.34546315250841</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.1647590731850697</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.1330518539679897</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.1304033381146397</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.9057871776550996</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.1611587609985499</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.9550795901689604</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.3754359144469204</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.0412642784382902</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.5384061015724297</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.9047805792618897</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.8784142686104399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.0682712183183902</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.7277343164945602</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.89789346786743</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.2246723780260096</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.3054498688430503</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.2389405891958498</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.0607564455493597</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.1526794063056496</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.2889594685608197</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.1398036940874201</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.0948502115985299</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.3038886202617999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.6686768305617603</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.1590648761980997</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.2485563573938103</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.2329643031252697</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.1932537478186998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.0587797036263797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.2593041938852103</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.0226099380492899</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.2633002863966496</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.43495018682788</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.3688740238038903</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.53443267551663</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.3382705955442802</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.0876344453974403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A385-4828-89CB-37E747C9F418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1405116767"/>
+        <c:axId val="1355555647"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$B$3:$KO$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98910675381263602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89166983768376895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94262974459052895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91942189248283401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87294908767708401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.874588166242943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88011482509468397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88532125606428902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88660912387204505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.899449208026466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90193484846877703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89961668307239495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90961598628560103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90554688908955505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90529889323463197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90036315526514898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90360643097440696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.909312862048135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90244091120775305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90516613254328004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90669552376686902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90944841848694902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91101091027436698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91017426805141199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90981568469830199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90791903926337103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.910776535257942</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.912707522723473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.91756756717002497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92447748901431204</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92016965155196595</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92255038608123596</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92631819192648102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92355169199653497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92501812017388096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92256749701428598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92434178216457497</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92612075626138701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92716771879260296</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92331950797943796</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92522484407644401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92362223751429395</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92793001890201499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92536009774976902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92786812932580598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92854144919707404</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92666468948752601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93067145252519301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.92689015142451703</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93380447540211897</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93155522453746997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.929863214551509</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.929907065792136</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92927803879608895</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92946208237019701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92624917918535599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92701343365839195</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92865144684352197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92579473606761498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93067689655838903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93053738981193002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93022766042305305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92941789362699501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93075946593758296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93099226185607098</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93418992720834804</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93528711198266601</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.93168289764982404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.93185845100768705</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.93420381732408297</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.93236715105117696</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93307212617681301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.93113769260306201</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.93460595588858397</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.93550980942894102</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93298852010779298</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.93435130301043201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93154627381004595</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93189072668636697</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93337008925263598</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.93268864518230798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.93438941196598302</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.93406889116396397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93130307874214602</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.92979524397725599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.93386474590318902</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93022354356311598</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.93432243207930099</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.932763349328252</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.93425742155998204</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93285846702369102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93393662794934795</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.933484048481241</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.93679158834475396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.93502490193855203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.936158682398053</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.93728901483452798</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.93764589434871204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.93672592970261204</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.93819602441786698</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.937208829151846</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.93718806369756302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.93647939468520303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.93747411576424</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.93788238849684602</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.93810888241579105</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.94047384333471695</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.93691929639677796</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.93581206673869799</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.93878768846332905</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.938537387317811</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.93508805800181505</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.93770509571569205</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.938553682813417</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.93726675582625096</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.94026316867071102</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.94001105805277696</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.93978757428198101</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.94049651057828798</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.93743382757569305</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.93964985758189101</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.93831660554533403</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.93926531029044302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.93926333413353102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.93743253728482001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.94016431225262798</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.93920677305814804</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.93730555089993095</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.93862535847883399</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.93841044627043202</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.93996436987292398</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.93681155978562902</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.93947471469502297</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.94023598888448001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.93894057297940303</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.93779073288027504</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.93967872351103598</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.93858694833063205</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.93785157562502197</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.93793214387859802</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.93845260128922903</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.93879257418475504</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.94013546553439498</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.93867425934107895</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.93851259301229095</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.93853192788804396</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.93974548635340904</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.93942395591664096</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.93692239310339598</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.93891857932651801</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.93820738724855102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.93878704161760196</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.93993856425947797</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.93933979922431898</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.93959096530196795</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.94011781224193203</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.94043355096013903</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.93913374843506303</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93843835612369997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.94069199803638603</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.93767973033310204</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.93907398831283695</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.94057724594558001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.93696209156834498</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.93829822552370301</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.93988078759872296</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.93941374508143305</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.93807564161802603</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.93997792334373897</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.93678368276442703</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.93959253091033601</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.93856218162878002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.93954545995008698</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.93860798501177001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.93692613769431798</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.93781116001331</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.93985828434172802</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.93838909089804101</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.93931676940019504</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.93855329461966996</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.93799234032402501</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.937451332610717</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.93958209174707696</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.93745462574712801</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.93681238353392804</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.94016818657732004</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.93549515132219796</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.93640540820580598</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.93594457602180603</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.93544104769668501</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.93850949424470698</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.939440760775199</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.93759216510962395</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.93947805923125405</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.93779506535239898</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.93652898762908099</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.935526102249429</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.93450847468144205</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.93708487596961898</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.93539459980786399</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.93912151374886199</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.93218336682185499</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.93793921492584698</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.93878094418512004</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.93057705383806699</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.93669200371015604</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.93708840018314099</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.93671463927388399</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.93732988842590503</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.93213477789732802</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.93460232286170397</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.93498385323423405</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.93506411529016398</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.93443241111231701</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.93108212987592798</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.93859071684283801</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.93446365226959405</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.93294407110224098</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.93548076105031996</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.93660167406806405</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.93868747914804795</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.93584490154386202</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.92999724056344002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.93521741809720405</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.93595116126738598</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.93255393225987404</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.93359698617126397</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.93457681382557101</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.93524882961097799</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.93433611775219105</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.93532061846065495</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.93516846871332104</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.93600939258586902</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.93705065725193903</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.92964314007109605</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.93255904727441896</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.93651764906264301</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.93654333009518798</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.93428938321633903</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.93616512173787303</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.93360734725832395</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.93044361707248002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.93648162315349504</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.93163083269928704</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.93468589552502601</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.92888385871527901</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.93546240192209695</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.93498860565637198</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.92937707340115205</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.930102444190258</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.93046711512700597</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.932519953704538</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.933786686837905</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.93574160473083301</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.92832816271819696</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.93153730977708904</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.93686363320406496</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.93355529537695303</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.92726056203613305</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.93415006402062195</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.92621520294033699</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.92910234235365097</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.92642363228579006</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.92514840252132302</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.93230653245101103</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.92691791634057896</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.93120767725848597</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.92116276447004397</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.92707662515582701</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.93576893841990205</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.928997802445794</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.93006362493905403</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.92600709289642202</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.93326267664816398</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.93315162457406198</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.92809742706058496</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.92580277040672998</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.92759788168850599</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.93098651561594703</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.92949064533569303</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.92593536768040596</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.92597672372027995</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.93065986787874999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.926538823157257</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.935851906416859</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.93099407844777204</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.92684628553543003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.92782217590527805</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.92599625167654798</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.93085374335472404</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.92637583859919903</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.93036948283739096</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.92551031990650101</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.92247344720177804</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.92375109731257199</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.92142538063134105</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.92777085198370501</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.93041182568083802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A385-4828-89CB-37E747C9F418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1409372383"/>
+        <c:axId val="1355558559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405116767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1355555647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1355555647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405116767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1355558559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.95000000000000007"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1409372383"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1409372383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1355558559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kohärenz: u_mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$B$2:$KO$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0.28584917297358498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53575779829499204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60706300649322598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58272958525986696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92014286357987796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91972040163785096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70170340214047799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76861812745784996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.941339808249683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09862212939806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1410660819185501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2461969826536301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3251219970061801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35053492456424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4494092296561101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4707639374469801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3721708173835201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.28628460911049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.38194338736134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4263045666988501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4000542402210301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4571098463565499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.58980478093613</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54103003978256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6173589678282001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52957234975523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.61398254834739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.59536723940109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.63191566918959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7381283403885499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7086582202603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8977731674734699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.71036250092376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.82402975579787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9005960566862601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8213894596357001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8011149512161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8647575024432601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.80380963118669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0504059805414601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0090365419828098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.79147400086289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.98054274783077</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9333960227992599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0521775703959402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8886365327955901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.00777444196508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0421619934833499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.07015009851784</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1646999048693898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.18575467576209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.24604686066295</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2412243567546999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2380340370714902</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2233584621422899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1434662609239901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2382199397155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1577439238022298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1224170906714601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1836402306057998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.15529771171206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1914916986993398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2392660794839299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2911725353958001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2868610491629702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3575410631807898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.22966616186079</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2670569212990599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.27499953704636</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.19632190921019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2081549242612599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2941696674015901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2096353128332602</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3040407093828001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2103253743901901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.28960426631859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3013837386085001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4516629402676799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.44241238933787</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.33062736436269</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3663174405605099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6562023369004102</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3267523373547401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.47973593182622</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6832529894025399</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4917817189382201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2664114636394599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6401901680344801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3099042819675102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5755393809713598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3873847767087799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6291379606082699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3894011824130899</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6491628966888401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4389525653939099</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.58109978938396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5619223424412398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5142737398605699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8952392327474299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8649844990891902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8482385857594301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8967094097519999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8010109735392001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6355869342082201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.94063711891468</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8855504814258</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.7474498694569101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.82904041670727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0297373567382899</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.86487327903524</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8895736759059498</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.07504664431137</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9043767000273801</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.7268450195761398</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.87200051048938</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0755631347644798</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9725110632512299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.0295863218465899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0264031882809399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.0578693061250299</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0001057926599302</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9642907808639398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.21485229966166</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9411039620439001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.15762405415731</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.96056785198844</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.94758178523412</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.3885581557893598</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.20673651188498</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2676409530961399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.0847112214060801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.1996488954587798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3066823204669902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.4105222901792098</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.3599628993433202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.27201635815987</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.21064904186863</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.82325649867157</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.4663186008625599</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.4041102209376199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.35036441647709</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4892477799863002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3544476085830599</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1246009711704801</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.46067227941557</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.29535998175129</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5777860327437701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.4441057120622598</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6509875989560001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.4878028165801802</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.5563136424187198</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6561314970390102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.5798515669107398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.76083780242976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.5384099114458998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.5929537145844899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.48652207730375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.4731870886186802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6331233009161301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.71559742718421</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.5162802606820498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.59250881399712</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.7252089417461098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.5370394934283</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.5087219548916302</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.5126962938538999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6447488931338099</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.63621428779238</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.8424020625476398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.8979915256915199</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.08031913975225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.00549855064141</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8030578047983599</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7744369218251901</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.8227770893978601</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.8192308858641399</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.9116634287310701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.7944058212205398</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.9425417156107101</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0309909447531602</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.8650596266206998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8958057358435698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.9785130375903499</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2935077571468803</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.9462464696271198</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.2170703181810199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.29769506506008</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.93753999161313</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.4457085831537597</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.9757292255464001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.1990300867142301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.2408303700436498</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.90253459373276</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.9333168738906399</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.9249488795734</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.8617622652120298</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.0988925119773896</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.4027627636950299</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.4809908375973002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.3392869829679404</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.29704243507675</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.3924501922013004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.1706063502825597</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.5293463312020297</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.0997427026430602</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.3512933886708298</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.6762702943055796</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.23598737801382</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.1900602105804801</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.2607566648985298</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1630770267339798</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.5943730890710901</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.54254758659203</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.2599688643657796</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.2370848237997603</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.3968130543465396</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.6669034944982197</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1386505906711504</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.51142988825353</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4378809770273699</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.4932924126507698</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.3103085416991496</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.0021602956358802</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.3692536989605397</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.7937926013473504</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4919529459224004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4533491273743904</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.60773637746804</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.3984258244198502</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.5168406643879102</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.5299123255292004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.5247795145020602</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.5851988199745204</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.4324463477677698</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.3980169130347599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.4603634697775902</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.97618581414297</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.7572285531385399</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.5566739140891697</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.4106500950049004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.6351010860617103</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.6701787752049198</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.7515813681628103</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.9126206225923799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.7263765918194602</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.7946320773259403</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.6749822319767</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5.0059203680584803</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.7142203154765898</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5524007700522002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.92483813637336</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.9305597845965696</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.7098006410456499</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.7833192187304903</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.6532176466331201</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.7625665955733396</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.0186624831830997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.8282517507603098</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.57235191259642</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.59178942167358</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.0226880485835297</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.5198279831856496</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.34546315250841</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.1647590731850697</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.1330518539679897</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.1304033381146397</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.9057871776550996</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.1611587609985499</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.9550795901689604</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.3754359144469204</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.0412642784382902</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.5384061015724297</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.9047805792618897</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.8784142686104399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.0682712183183902</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.7277343164945602</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.89789346786743</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.2246723780260096</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.3054498688430503</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.2389405891958498</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.0607564455493597</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.1526794063056496</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.2889594685608197</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.1398036940874201</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.0948502115985299</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.3038886202617999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.6686768305617603</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.1590648761980997</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5.2485563573938103</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.2329643031252697</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.1932537478186998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5.0587797036263797</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5.2593041938852103</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.0226099380492899</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5.2633002863966496</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.43495018682788</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5.3688740238038903</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5.53443267551663</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.3382705955442802</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5.0876344453974403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1784-4272-B2FD-C0DFB4AD28B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1233352703"/>
+        <c:axId val="1168706495"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distanz: Jaccard Mittelwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="2C944C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2C944C"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="2C944C"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Coherence_vs_Difference_Jaccard!$B$3:$KO$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98910675381263602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89166983768376895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94262974459052895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91942189248283401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87294908767708401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.874588166242943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88011482509468397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88532125606428902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88660912387204505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.899449208026466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90193484846877703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89961668307239495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90961598628560103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90554688908955505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90529889323463197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90036315526514898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90360643097440696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.909312862048135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90244091120775305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90516613254328004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90669552376686902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90944841848694902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91101091027436698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91017426805141199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90981568469830199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90791903926337103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.910776535257942</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.912707522723473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.91756756717002497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92447748901431204</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92016965155196595</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92255038608123596</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92631819192648102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92355169199653497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92501812017388096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92256749701428598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92434178216457497</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92612075626138701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92716771879260296</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92331950797943796</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92522484407644401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92362223751429395</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92793001890201499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92536009774976902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92786812932580598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92854144919707404</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92666468948752601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93067145252519301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.92689015142451703</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93380447540211897</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93155522453746997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.929863214551509</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.929907065792136</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92927803879608895</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92946208237019701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92624917918535599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92701343365839195</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92865144684352197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92579473606761498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93067689655838903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93053738981193002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93022766042305305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92941789362699501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93075946593758296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93099226185607098</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93418992720834804</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93528711198266601</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.93168289764982404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.93185845100768705</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.93420381732408297</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.93236715105117696</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93307212617681301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.93113769260306201</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.93460595588858397</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.93550980942894102</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93298852010779298</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.93435130301043201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93154627381004595</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93189072668636697</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.93337008925263598</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.93268864518230798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.93438941196598302</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.93406889116396397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93130307874214602</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.92979524397725599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.93386474590318902</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93022354356311598</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.93432243207930099</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.932763349328252</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.93425742155998204</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93285846702369102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93393662794934795</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.933484048481241</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.93679158834475396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.93502490193855203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.936158682398053</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.93728901483452798</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.93764589434871204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.93672592970261204</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.93819602441786698</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.937208829151846</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.93718806369756302</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.93647939468520303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.93747411576424</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.93788238849684602</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.93810888241579105</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.94047384333471695</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.93691929639677796</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.93581206673869799</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.93878768846332905</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.938537387317811</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.93508805800181505</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.93770509571569205</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.938553682813417</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.93726675582625096</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.94026316867071102</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.94001105805277696</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.93978757428198101</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.94049651057828798</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.93743382757569305</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.93964985758189101</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.93831660554533403</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.93926531029044302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.93926333413353102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.93743253728482001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.94016431225262798</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.93920677305814804</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.93730555089993095</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.93862535847883399</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.93841044627043202</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.93996436987292398</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.93681155978562902</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.93947471469502297</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.94023598888448001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.93894057297940303</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.93779073288027504</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.93967872351103598</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.93858694833063205</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.93785157562502197</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.93793214387859802</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.93845260128922903</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.93879257418475504</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.94013546553439498</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.93867425934107895</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.93851259301229095</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.93853192788804396</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.93974548635340904</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.93942395591664096</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.93692239310339598</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.93891857932651801</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.93820738724855102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.93878704161760196</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.93993856425947797</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.93933979922431898</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.93959096530196795</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.94011781224193203</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.94043355096013903</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.93913374843506303</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93843835612369997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.94069199803638603</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.93767973033310204</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.93907398831283695</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.94057724594558001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.93696209156834498</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.93829822552370301</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.93988078759872296</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.93941374508143305</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.93807564161802603</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.93997792334373897</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.93678368276442703</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.93959253091033601</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.93856218162878002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.93954545995008698</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.93860798501177001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.93692613769431798</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.93781116001331</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.93985828434172802</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.93838909089804101</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.93931676940019504</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.93855329461966996</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.93799234032402501</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.937451332610717</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.93958209174707696</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.93745462574712801</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.93681238353392804</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.94016818657732004</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.93549515132219796</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.93640540820580598</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.93594457602180603</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.93544104769668501</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.93850949424470698</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.939440760775199</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.93759216510962395</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.93947805923125405</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.93779506535239898</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.93652898762908099</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.935526102249429</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.93450847468144205</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.93708487596961898</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.93539459980786399</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.93912151374886199</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.93218336682185499</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.93793921492584698</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.93878094418512004</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.93057705383806699</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.93669200371015604</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.93708840018314099</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.93671463927388399</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.93732988842590503</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.93213477789732802</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.93460232286170397</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.93498385323423405</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.93506411529016398</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.93443241111231701</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.93108212987592798</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.93859071684283801</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.93446365226959405</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.93294407110224098</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.93548076105031996</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.93660167406806405</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.93868747914804795</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.93584490154386202</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.92999724056344002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.93521741809720405</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.93595116126738598</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.93255393225987404</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.93359698617126397</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.93457681382557101</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.93524882961097799</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.93433611775219105</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.93532061846065495</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.93516846871332104</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.93600939258586902</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.93705065725193903</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.92964314007109605</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.93255904727441896</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.93651764906264301</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.93654333009518798</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.93428938321633903</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.93616512173787303</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.93360734725832395</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.93044361707248002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.93648162315349504</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.93163083269928704</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.93468589552502601</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.92888385871527901</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.93546240192209695</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.93498860565637198</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.92937707340115205</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.930102444190258</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.93046711512700597</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.932519953704538</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.933786686837905</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.93574160473083301</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.92832816271819696</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.93153730977708904</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.93686363320406496</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.93355529537695303</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.92726056203613305</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.93415006402062195</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.92621520294033699</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.92910234235365097</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.92642363228579006</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.92514840252132302</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.93230653245101103</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.92691791634057896</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.93120767725848597</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.92116276447004397</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.92707662515582701</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.93576893841990205</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.928997802445794</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.93006362493905403</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.92600709289642202</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.93326267664816398</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.93315162457406198</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.92809742706058496</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.92580277040672998</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.92759788168850599</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.93098651561594703</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.92949064533569303</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.92593536768040596</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.92597672372027995</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.93065986787874999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.926538823157257</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.935851906416859</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.93099407844777204</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.92684628553543003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.92782217590527805</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.92599625167654798</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.93085374335472404</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.92637583859919903</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.93036948283739096</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.92551031990650101</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.92247344720177804</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.92375109731257199</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.92142538063134105</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.92777085198370501</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.93041182568083802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1784-4272-B2FD-C0DFB4AD28B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1233415903"/>
+        <c:axId val="1168707327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233352703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Themenanzahl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168706495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168706495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Kohärenz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233352703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1168707327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.95000000000000007"/>
+          <c:min val="0.89000000000000012"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Distanz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233415903"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1233415903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1168707327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33932443785249472"/>
+          <c:y val="0.73175937913421185"/>
+          <c:w val="0.31593099857961848"/>
+          <c:h val="3.463774575347893E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4100,6 +8720,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5295,6 +9995,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5688,16 +11394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5724,16 +11430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5753,6 +11459,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FF81E8-138E-4215-90EC-B4C4849DDF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC76B60D-3F58-4742-87EF-C7455B0A284A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6056,12 +11834,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:KO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,7 +13033,7 @@
       </c>
     </row>
     <row r="2" spans="1:301" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7874,7 +13938,7 @@
       </c>
     </row>
     <row r="3" spans="1:301" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
